--- a/Matrix_Targi.xlsx
+++ b/Matrix_Targi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz.Bartosik\PycharmProjects\Wyceny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateusz Bartosik\Projekty python\SystemWycen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4202728-359B-493C-BADB-A9DA4EA12BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3293CC6-7E10-4038-80D9-CB10BE7D914C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:AW50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,3634 +671,6861 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
       <c r="K5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
       <c r="K6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
       <c r="K7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ7">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>380</v>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
       <c r="K8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="W8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
       </c>
       <c r="AD8">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AE8">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AG8">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
       </c>
       <c r="AN8">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
       <c r="K9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
       </c>
       <c r="AR9">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
       <c r="K10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
       </c>
       <c r="AN10">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
       </c>
       <c r="AR10">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
       <c r="E11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH11">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI11">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ11">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK11">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP11">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
       </c>
       <c r="AR11">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
       <c r="E12">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK12">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
       </c>
       <c r="AN12">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
       </c>
       <c r="AR12">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
       <c r="E13">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI13">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK13">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
       </c>
       <c r="AN13">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
       <c r="E14">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ14">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK14">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
       </c>
       <c r="AN14">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
       </c>
       <c r="AR14">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
       <c r="E15">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI15">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ15">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK15">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
       </c>
       <c r="AN15">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
       </c>
       <c r="AR15">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
       <c r="E16">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI16">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK16">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
       </c>
       <c r="AN16">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
       </c>
       <c r="AR16">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
       <c r="E17">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE17">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG17">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH17">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI17">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ17">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK17">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
       </c>
       <c r="AN17">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
       </c>
       <c r="AR17">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
       <c r="E18">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ18">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK18">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
       <c r="E19">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH19">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI19">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ19">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK19">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
       </c>
       <c r="AN19">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
       <c r="E20">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ20">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK20">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
       </c>
       <c r="AN20">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
       </c>
       <c r="AR20">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
       <c r="E21">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD21">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE21">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF21">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH21">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI21">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK21">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
       </c>
       <c r="AN21">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
       </c>
       <c r="AR21">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS21">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>0</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
       <c r="E22">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ22">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK22">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
       </c>
       <c r="AR22">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS22">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
       <c r="E23">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK23">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
       </c>
       <c r="AN23">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
       </c>
       <c r="AR23">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
       <c r="E24">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ24">
+        <v>0</v>
       </c>
       <c r="AR24">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0</v>
+      </c>
+      <c r="AV24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
       <c r="E25">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
       </c>
       <c r="AN25">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
       </c>
       <c r="AR25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
       <c r="L26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>200</v>
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
       <c r="L27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="S27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="T27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="U27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="V27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
       </c>
       <c r="AN27">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AO27">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>0</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>0</v>
+      </c>
+      <c r="AV27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
       <c r="L28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
       </c>
       <c r="AN28">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AO28">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>340</v>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>0</v>
+      </c>
+      <c r="AT28">
+        <v>0</v>
+      </c>
+      <c r="AU28">
+        <v>0</v>
+      </c>
+      <c r="AV28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
       <c r="L29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="O29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="U29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="V29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="W29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
+        <v>0</v>
+      </c>
+      <c r="AL29">
+        <v>0</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
       </c>
       <c r="AN29">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AO29">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>340</v>
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>0</v>
+      </c>
+      <c r="AU29">
+        <v>0</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
       <c r="E30">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>380</v>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>480</v>
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
       </c>
       <c r="AN30">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AO30">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0</v>
+      </c>
+      <c r="AT30">
+        <v>0</v>
+      </c>
+      <c r="AU30">
+        <v>0</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
       <c r="E31">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
       </c>
       <c r="AR31">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>0</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>0</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AF32">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
       </c>
       <c r="AN32">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>0</v>
+      </c>
+      <c r="AT32">
+        <v>0</v>
+      </c>
+      <c r="AU32">
+        <v>0</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
       <c r="E33">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="U33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="W33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AH33">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="AK33">
-        <v>420</v>
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
       </c>
       <c r="AN33">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AO33">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
       </c>
       <c r="AR33">
-        <v>170</v>
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>0</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
       <c r="E34">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>370</v>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AI34">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AJ34">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AK34">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
       </c>
       <c r="AN34">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AO34">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP34">
-        <v>310</v>
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
       </c>
       <c r="AR34">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
       <c r="G35">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="T35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="U35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
       </c>
       <c r="AD35">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AE35">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AH35">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+      <c r="AJ35">
+        <v>0</v>
+      </c>
+      <c r="AK35">
+        <v>0</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
       </c>
       <c r="AN35">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>0</v>
+      </c>
+      <c r="AT35">
+        <v>0</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
       <c r="G36">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
+      </c>
+      <c r="AJ36">
+        <v>0</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
       </c>
       <c r="AN36">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AO36">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>0</v>
+      </c>
+      <c r="AT36">
+        <v>0</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
       <c r="G37">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="M37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="O37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="S37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="T37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="W37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="Y37">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
       </c>
       <c r="AD37">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AH37">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
+      </c>
+      <c r="AJ37">
+        <v>0</v>
+      </c>
+      <c r="AK37">
+        <v>0</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
       </c>
       <c r="AN37">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AO37">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>245</v>
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>0</v>
+      </c>
+      <c r="AT37">
+        <v>0</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+      <c r="AV38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
       <c r="G40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>395</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>395</v>
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AI40">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AJ40">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AK40">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>0</v>
       </c>
       <c r="AR40">
-        <v>395</v>
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
       <c r="G41">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="O41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="P41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="R41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="U41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>345</v>
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AD41">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AF41">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AG41">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AH41">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="AI41">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AJ41">
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="AK41">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+      <c r="AV41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
       <c r="G42">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>300</v>
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>400</v>
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+      <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>240</v>
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>0</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AJ43">
+        <v>0</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
+      </c>
+      <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>0</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+      <c r="AV43">
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
       <c r="E44">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>470</v>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="P44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="S44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="U44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="V44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="X44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="Y44">
-        <v>320</v>
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AE44">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AG44">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AH44">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="AI44">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AJ44">
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="AK44">
-        <v>570</v>
+        <v>0</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+      <c r="AM44">
+        <v>0</v>
       </c>
       <c r="AN44">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="AO44">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>380</v>
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>0</v>
+      </c>
+      <c r="AR44">
+        <v>0</v>
       </c>
       <c r="AS44">
-        <v>440</v>
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
       <c r="K45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="T45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="V45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="W45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="Y45">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>0</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
+      </c>
+      <c r="AF45">
+        <v>0</v>
+      </c>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
+      </c>
+      <c r="AJ45">
+        <v>0</v>
+      </c>
+      <c r="AK45">
+        <v>0</v>
+      </c>
+      <c r="AL45">
+        <v>0</v>
+      </c>
+      <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>0</v>
       </c>
       <c r="AR45">
-        <v>270</v>
+        <v>0</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>0</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
+      </c>
+      <c r="AF46">
+        <v>0</v>
+      </c>
+      <c r="AG46">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
+      </c>
+      <c r="AJ46">
+        <v>0</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>0</v>
+      </c>
+      <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>0</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>0</v>
+      </c>
+      <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>0</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+      <c r="AV46">
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
+      </c>
+      <c r="AF47">
+        <v>0</v>
+      </c>
+      <c r="AG47">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
+      </c>
+      <c r="AJ47">
+        <v>0</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>0</v>
+      </c>
+      <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>0</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+      <c r="AV47">
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>46</v>
       </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>0</v>
+      </c>
+      <c r="AB48">
+        <v>0</v>
+      </c>
+      <c r="AC48">
+        <v>0</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
+      </c>
+      <c r="AF48">
+        <v>0</v>
+      </c>
+      <c r="AG48">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
+      </c>
+      <c r="AJ48">
+        <v>0</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>0</v>
+      </c>
+      <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>0</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>0</v>
+      </c>
+      <c r="AS48">
+        <v>0</v>
+      </c>
+      <c r="AT48">
+        <v>0</v>
+      </c>
+      <c r="AU48">
+        <v>0</v>
+      </c>
+      <c r="AV48">
+        <v>0</v>
+      </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>47</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
+      </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>0</v>
+      </c>
+      <c r="AS49">
+        <v>0</v>
+      </c>
+      <c r="AT49">
+        <v>0</v>
+      </c>
+      <c r="AU49">
+        <v>0</v>
+      </c>
+      <c r="AV49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
